--- a/Backend/oil_production_data.xlsx
+++ b/Backend/oil_production_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1522"/>
+  <dimension ref="A1:E1564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32401,6 +32401,888 @@
         <v>73.68000000000001</v>
       </c>
     </row>
+    <row r="1523">
+      <c r="A1523" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:20:36.040323</t>
+        </is>
+      </c>
+      <c r="B1523" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1523" t="n">
+        <v>887.3</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>2106.77</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>79.73</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:20:37.156939</t>
+        </is>
+      </c>
+      <c r="B1524" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1524" t="n">
+        <v>822.3099999999999</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>2058.55</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>87.73</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:20:38.273852</t>
+        </is>
+      </c>
+      <c r="B1525" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1525" t="n">
+        <v>1011.15</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>2144.72</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>74.81</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:20:39.391073</t>
+        </is>
+      </c>
+      <c r="B1526" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1526" t="n">
+        <v>986.4400000000001</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>2028.43</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>61.45</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:20:40.507637</t>
+        </is>
+      </c>
+      <c r="B1527" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1527" t="n">
+        <v>1093.16</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>1811.66</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>62.36</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:20:41.624204</t>
+        </is>
+      </c>
+      <c r="B1528" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1528" t="n">
+        <v>982.9299999999999</v>
+      </c>
+      <c r="D1528" t="n">
+        <v>2026.51</v>
+      </c>
+      <c r="E1528" t="n">
+        <v>73.06</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:20:42.741899</t>
+        </is>
+      </c>
+      <c r="B1529" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1529" t="n">
+        <v>852.76</v>
+      </c>
+      <c r="D1529" t="n">
+        <v>1970.83</v>
+      </c>
+      <c r="E1529" t="n">
+        <v>61.96</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:20:43.856772</t>
+        </is>
+      </c>
+      <c r="B1530" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1530" t="n">
+        <v>1142.35</v>
+      </c>
+      <c r="D1530" t="n">
+        <v>2025.16</v>
+      </c>
+      <c r="E1530" t="n">
+        <v>71.23</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:20:44.974288</t>
+        </is>
+      </c>
+      <c r="B1531" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1531" t="n">
+        <v>1155.72</v>
+      </c>
+      <c r="D1531" t="n">
+        <v>1821.39</v>
+      </c>
+      <c r="E1531" t="n">
+        <v>75.36</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:20:46.075341</t>
+        </is>
+      </c>
+      <c r="B1532" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1532" t="n">
+        <v>1110.82</v>
+      </c>
+      <c r="D1532" t="n">
+        <v>1886.18</v>
+      </c>
+      <c r="E1532" t="n">
+        <v>79.78</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:20:47.191620</t>
+        </is>
+      </c>
+      <c r="B1533" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1533" t="n">
+        <v>1090.34</v>
+      </c>
+      <c r="D1533" t="n">
+        <v>1803.22</v>
+      </c>
+      <c r="E1533" t="n">
+        <v>65.19</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:20:48.307348</t>
+        </is>
+      </c>
+      <c r="B1534" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1534" t="n">
+        <v>1182.19</v>
+      </c>
+      <c r="D1534" t="n">
+        <v>2097.1</v>
+      </c>
+      <c r="E1534" t="n">
+        <v>60.11</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:20:49.440280</t>
+        </is>
+      </c>
+      <c r="B1535" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1535" t="n">
+        <v>1184.42</v>
+      </c>
+      <c r="D1535" t="n">
+        <v>1876.26</v>
+      </c>
+      <c r="E1535" t="n">
+        <v>82.39</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:20:50.539765</t>
+        </is>
+      </c>
+      <c r="B1536" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1536" t="n">
+        <v>1024.21</v>
+      </c>
+      <c r="D1536" t="n">
+        <v>2166.72</v>
+      </c>
+      <c r="E1536" t="n">
+        <v>89.41</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:20:51.640388</t>
+        </is>
+      </c>
+      <c r="B1537" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1537" t="n">
+        <v>948.85</v>
+      </c>
+      <c r="D1537" t="n">
+        <v>2026.81</v>
+      </c>
+      <c r="E1537" t="n">
+        <v>72.94</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:20:52.757560</t>
+        </is>
+      </c>
+      <c r="B1538" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1538" t="n">
+        <v>951.0599999999999</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>2074.15</v>
+      </c>
+      <c r="E1538" t="n">
+        <v>60.51</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:20:53.873105</t>
+        </is>
+      </c>
+      <c r="B1539" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1539" t="n">
+        <v>997.2</v>
+      </c>
+      <c r="D1539" t="n">
+        <v>2041.59</v>
+      </c>
+      <c r="E1539" t="n">
+        <v>66.36</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:20:54.991915</t>
+        </is>
+      </c>
+      <c r="B1540" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1540" t="n">
+        <v>932.25</v>
+      </c>
+      <c r="D1540" t="n">
+        <v>2060.74</v>
+      </c>
+      <c r="E1540" t="n">
+        <v>66.87</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:20:56.091497</t>
+        </is>
+      </c>
+      <c r="B1541" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1541" t="n">
+        <v>833.78</v>
+      </c>
+      <c r="D1541" t="n">
+        <v>2174.4</v>
+      </c>
+      <c r="E1541" t="n">
+        <v>68.84999999999999</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:20:57.207364</t>
+        </is>
+      </c>
+      <c r="B1542" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1542" t="n">
+        <v>870.85</v>
+      </c>
+      <c r="D1542" t="n">
+        <v>2019.61</v>
+      </c>
+      <c r="E1542" t="n">
+        <v>77.59</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:20:58.323058</t>
+        </is>
+      </c>
+      <c r="B1543" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1543" t="n">
+        <v>828.02</v>
+      </c>
+      <c r="D1543" t="n">
+        <v>1987.22</v>
+      </c>
+      <c r="E1543" t="n">
+        <v>75.72</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:20:59.440559</t>
+        </is>
+      </c>
+      <c r="B1544" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1544" t="n">
+        <v>964.6799999999999</v>
+      </c>
+      <c r="D1544" t="n">
+        <v>2111.87</v>
+      </c>
+      <c r="E1544" t="n">
+        <v>78.31999999999999</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:00.542092</t>
+        </is>
+      </c>
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1545" t="n">
+        <v>1058.23</v>
+      </c>
+      <c r="D1545" t="n">
+        <v>1877.42</v>
+      </c>
+      <c r="E1545" t="n">
+        <v>74.61</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:01.657946</t>
+        </is>
+      </c>
+      <c r="B1546" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1546" t="n">
+        <v>992.54</v>
+      </c>
+      <c r="D1546" t="n">
+        <v>2180.38</v>
+      </c>
+      <c r="E1546" t="n">
+        <v>70.37</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:02.772610</t>
+        </is>
+      </c>
+      <c r="B1547" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1547" t="n">
+        <v>1108.6</v>
+      </c>
+      <c r="D1547" t="n">
+        <v>1875.87</v>
+      </c>
+      <c r="E1547" t="n">
+        <v>74.42</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:03.890274</t>
+        </is>
+      </c>
+      <c r="B1548" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1548" t="n">
+        <v>1024.55</v>
+      </c>
+      <c r="D1548" t="n">
+        <v>1881.67</v>
+      </c>
+      <c r="E1548" t="n">
+        <v>83.77</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:05.006820</t>
+        </is>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1549" t="n">
+        <v>1184.81</v>
+      </c>
+      <c r="D1549" t="n">
+        <v>2067.83</v>
+      </c>
+      <c r="E1549" t="n">
+        <v>63.61</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:06.124356</t>
+        </is>
+      </c>
+      <c r="B1550" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1550" t="n">
+        <v>1173.75</v>
+      </c>
+      <c r="D1550" t="n">
+        <v>1844.64</v>
+      </c>
+      <c r="E1550" t="n">
+        <v>71.41</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:07.240450</t>
+        </is>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1551" t="n">
+        <v>865.51</v>
+      </c>
+      <c r="D1551" t="n">
+        <v>1889.6</v>
+      </c>
+      <c r="E1551" t="n">
+        <v>82.59999999999999</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:08.356651</t>
+        </is>
+      </c>
+      <c r="B1552" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1552" t="n">
+        <v>1144.23</v>
+      </c>
+      <c r="D1552" t="n">
+        <v>1953.67</v>
+      </c>
+      <c r="E1552" t="n">
+        <v>87.72</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:09.457798</t>
+        </is>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1553" t="n">
+        <v>937.91</v>
+      </c>
+      <c r="D1553" t="n">
+        <v>1902.49</v>
+      </c>
+      <c r="E1553" t="n">
+        <v>71.45</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:10.573998</t>
+        </is>
+      </c>
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1554" t="n">
+        <v>1076.75</v>
+      </c>
+      <c r="D1554" t="n">
+        <v>2049.52</v>
+      </c>
+      <c r="E1554" t="n">
+        <v>88.23</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:11.695309</t>
+        </is>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1555" t="n">
+        <v>1027.92</v>
+      </c>
+      <c r="D1555" t="n">
+        <v>2070.31</v>
+      </c>
+      <c r="E1555" t="n">
+        <v>85.81</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:12.808183</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1556" t="n">
+        <v>811.3200000000001</v>
+      </c>
+      <c r="D1556" t="n">
+        <v>2010.14</v>
+      </c>
+      <c r="E1556" t="n">
+        <v>78.93000000000001</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:13.913810</t>
+        </is>
+      </c>
+      <c r="B1557" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1557" t="n">
+        <v>1074.14</v>
+      </c>
+      <c r="D1557" t="n">
+        <v>2093.22</v>
+      </c>
+      <c r="E1557" t="n">
+        <v>85.86</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:15.023827</t>
+        </is>
+      </c>
+      <c r="B1558" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1558" t="n">
+        <v>1105.59</v>
+      </c>
+      <c r="D1558" t="n">
+        <v>2137.01</v>
+      </c>
+      <c r="E1558" t="n">
+        <v>74.09</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:16.140036</t>
+        </is>
+      </c>
+      <c r="B1559" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1559" t="n">
+        <v>804.4299999999999</v>
+      </c>
+      <c r="D1559" t="n">
+        <v>2081.84</v>
+      </c>
+      <c r="E1559" t="n">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:17.256250</t>
+        </is>
+      </c>
+      <c r="B1560" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1560" t="n">
+        <v>1167.25</v>
+      </c>
+      <c r="D1560" t="n">
+        <v>1996.13</v>
+      </c>
+      <c r="E1560" t="n">
+        <v>89.56</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:18.374324</t>
+        </is>
+      </c>
+      <c r="B1561" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1561" t="n">
+        <v>805.72</v>
+      </c>
+      <c r="D1561" t="n">
+        <v>2155.28</v>
+      </c>
+      <c r="E1561" t="n">
+        <v>60.38</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:19.489063</t>
+        </is>
+      </c>
+      <c r="B1562" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1562" t="n">
+        <v>980.59</v>
+      </c>
+      <c r="D1562" t="n">
+        <v>1851.31</v>
+      </c>
+      <c r="E1562" t="n">
+        <v>78.03</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:20.608474</t>
+        </is>
+      </c>
+      <c r="B1563" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1563" t="n">
+        <v>1070.14</v>
+      </c>
+      <c r="D1563" t="n">
+        <v>1902.9</v>
+      </c>
+      <c r="E1563" t="n">
+        <v>73.51000000000001</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:21.721802</t>
+        </is>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1564" t="n">
+        <v>943.5</v>
+      </c>
+      <c r="D1564" t="n">
+        <v>1914.62</v>
+      </c>
+      <c r="E1564" t="n">
+        <v>85.04000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Backend/oil_production_data.xlsx
+++ b/Backend/oil_production_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1759"/>
+  <dimension ref="A1:E1790"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37378,6 +37378,657 @@
         <v>74.27</v>
       </c>
     </row>
+    <row r="1760">
+      <c r="A1760" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:48.337994</t>
+        </is>
+      </c>
+      <c r="B1760" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1760" t="n">
+        <v>909.47</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>2055.28</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>77.18000000000001</v>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:49.738269</t>
+        </is>
+      </c>
+      <c r="B1761" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1761" t="n">
+        <v>871.34</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>2138.67</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>62.33</v>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:50.871329</t>
+        </is>
+      </c>
+      <c r="B1762" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1762" t="n">
+        <v>1081.95</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>1849.62</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>72.90000000000001</v>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:52.018677</t>
+        </is>
+      </c>
+      <c r="B1763" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1763" t="n">
+        <v>1000.85</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>2096.33</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>71.16</v>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:53.146675</t>
+        </is>
+      </c>
+      <c r="B1764" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1764" t="n">
+        <v>960.37</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>2060.19</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>77.44</v>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:54.269333</t>
+        </is>
+      </c>
+      <c r="B1765" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1765" t="n">
+        <v>1124.85</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>1827.26</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>66.64</v>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:55.404794</t>
+        </is>
+      </c>
+      <c r="B1766" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1766" t="n">
+        <v>1031.65</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>1818.22</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>75.14</v>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:56.535725</t>
+        </is>
+      </c>
+      <c r="B1767" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1767" t="n">
+        <v>969.08</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>1821.33</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>70.98999999999999</v>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:57.667226</t>
+        </is>
+      </c>
+      <c r="B1768" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1768" t="n">
+        <v>866.05</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>2157.41</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>69.63</v>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:58.803108</t>
+        </is>
+      </c>
+      <c r="B1769" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1769" t="n">
+        <v>925.46</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>1847.55</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>76.88</v>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:59.917268</t>
+        </is>
+      </c>
+      <c r="B1770" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1770" t="n">
+        <v>854.3099999999999</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>1889.2</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>76.69</v>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:26:01.087343</t>
+        </is>
+      </c>
+      <c r="B1771" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1771" t="n">
+        <v>932.71</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>2130.73</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>68.18000000000001</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:26:02.538582</t>
+        </is>
+      </c>
+      <c r="B1772" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1772" t="n">
+        <v>1127.08</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>1938.82</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>69.09999999999999</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:26:03.935247</t>
+        </is>
+      </c>
+      <c r="B1773" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1773" t="n">
+        <v>1090.05</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>1991.63</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>82.84</v>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:26:05.416320</t>
+        </is>
+      </c>
+      <c r="B1774" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1774" t="n">
+        <v>1154.23</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>2049.97</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>70.48999999999999</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:26:06.937897</t>
+        </is>
+      </c>
+      <c r="B1775" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1775" t="n">
+        <v>970.49</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>2064.41</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>88.06999999999999</v>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:26:08.420191</t>
+        </is>
+      </c>
+      <c r="B1776" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1776" t="n">
+        <v>960.05</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>2051.85</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>63.56</v>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:26:09.895484</t>
+        </is>
+      </c>
+      <c r="B1777" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1777" t="n">
+        <v>1059.58</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>2080.63</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>67.92</v>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:26:11.303985</t>
+        </is>
+      </c>
+      <c r="B1778" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1778" t="n">
+        <v>1161.44</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>2056.58</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>63.31</v>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:26:12.816935</t>
+        </is>
+      </c>
+      <c r="B1779" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1779" t="n">
+        <v>1042.6</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>2190.52</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>85.89</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:26:14.254800</t>
+        </is>
+      </c>
+      <c r="B1780" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1780" t="n">
+        <v>1085.34</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>2009.89</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>74.84</v>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:26:15.724593</t>
+        </is>
+      </c>
+      <c r="B1781" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1781" t="n">
+        <v>839.96</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>2075.6</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>69.59999999999999</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:26:17.205588</t>
+        </is>
+      </c>
+      <c r="B1782" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1782" t="n">
+        <v>923.64</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>1875.71</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>82.03</v>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:26:18.657362</t>
+        </is>
+      </c>
+      <c r="B1783" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1783" t="n">
+        <v>999.67</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>1834.98</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>60.79</v>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:26:19.987944</t>
+        </is>
+      </c>
+      <c r="B1784" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1784" t="n">
+        <v>1026.57</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>1927.7</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>60.39</v>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:26:21.454369</t>
+        </is>
+      </c>
+      <c r="B1785" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1785" t="n">
+        <v>846.3099999999999</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>1809.6</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>72.95999999999999</v>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:26:22.587843</t>
+        </is>
+      </c>
+      <c r="B1786" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1786" t="n">
+        <v>1165.91</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>2027.75</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>81.72</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:26:23.734724</t>
+        </is>
+      </c>
+      <c r="B1787" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1787" t="n">
+        <v>1046.09</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>1957.2</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>71.3</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:26:24.864502</t>
+        </is>
+      </c>
+      <c r="B1788" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1788" t="n">
+        <v>1101.66</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>2074.39</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>71.91</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:26:26.002355</t>
+        </is>
+      </c>
+      <c r="B1789" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1789" t="n">
+        <v>1065.2</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>1974.65</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>78.09</v>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:26:27.171053</t>
+        </is>
+      </c>
+      <c r="B1790" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1790" t="n">
+        <v>1086.38</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>2012.91</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>72.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Backend/oil_production_data.xlsx
+++ b/Backend/oil_production_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1881"/>
+  <dimension ref="A1:E1948"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39940,6 +39940,1413 @@
         <v>65.70999999999999</v>
       </c>
     </row>
+    <row r="1882">
+      <c r="A1882" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:00.866322</t>
+        </is>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1882" t="n">
+        <v>1191.56</v>
+      </c>
+      <c r="D1882" t="n">
+        <v>1945.21</v>
+      </c>
+      <c r="E1882" t="n">
+        <v>80.08</v>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:01.379302</t>
+        </is>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1883" t="n">
+        <v>817.37</v>
+      </c>
+      <c r="D1883" t="n">
+        <v>2033.2</v>
+      </c>
+      <c r="E1883" t="n">
+        <v>77.34999999999999</v>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:01.993448</t>
+        </is>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1884" t="n">
+        <v>1036.8</v>
+      </c>
+      <c r="D1884" t="n">
+        <v>1985.62</v>
+      </c>
+      <c r="E1884" t="n">
+        <v>77.56999999999999</v>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:02.501835</t>
+        </is>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1885" t="n">
+        <v>937.25</v>
+      </c>
+      <c r="D1885" t="n">
+        <v>2112.13</v>
+      </c>
+      <c r="E1885" t="n">
+        <v>60.36</v>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:03.135121</t>
+        </is>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1886" t="n">
+        <v>1078.18</v>
+      </c>
+      <c r="D1886" t="n">
+        <v>2040.26</v>
+      </c>
+      <c r="E1886" t="n">
+        <v>75.69</v>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:03.618755</t>
+        </is>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1887" t="n">
+        <v>952.8</v>
+      </c>
+      <c r="D1887" t="n">
+        <v>2080.86</v>
+      </c>
+      <c r="E1887" t="n">
+        <v>87.15000000000001</v>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:04.267952</t>
+        </is>
+      </c>
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1888" t="n">
+        <v>989.76</v>
+      </c>
+      <c r="D1888" t="n">
+        <v>1836.32</v>
+      </c>
+      <c r="E1888" t="n">
+        <v>74.45</v>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:05.035686</t>
+        </is>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1889" t="n">
+        <v>851.42</v>
+      </c>
+      <c r="D1889" t="n">
+        <v>2087.07</v>
+      </c>
+      <c r="E1889" t="n">
+        <v>84.42</v>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:05.599830</t>
+        </is>
+      </c>
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1890" t="n">
+        <v>823.78</v>
+      </c>
+      <c r="D1890" t="n">
+        <v>2038.32</v>
+      </c>
+      <c r="E1890" t="n">
+        <v>74.53</v>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:06.435761</t>
+        </is>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1891" t="n">
+        <v>1150.31</v>
+      </c>
+      <c r="D1891" t="n">
+        <v>1800.73</v>
+      </c>
+      <c r="E1891" t="n">
+        <v>78.19</v>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:07.066925</t>
+        </is>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1892" t="n">
+        <v>948.04</v>
+      </c>
+      <c r="D1892" t="n">
+        <v>2147.37</v>
+      </c>
+      <c r="E1892" t="n">
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:07.941627</t>
+        </is>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1893" t="n">
+        <v>1098.17</v>
+      </c>
+      <c r="D1893" t="n">
+        <v>1975.1</v>
+      </c>
+      <c r="E1893" t="n">
+        <v>75.81</v>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:08.451037</t>
+        </is>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1894" t="n">
+        <v>875.6799999999999</v>
+      </c>
+      <c r="D1894" t="n">
+        <v>1850.3</v>
+      </c>
+      <c r="E1894" t="n">
+        <v>81.31</v>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:09.452412</t>
+        </is>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1895" t="n">
+        <v>1002.24</v>
+      </c>
+      <c r="D1895" t="n">
+        <v>2154.72</v>
+      </c>
+      <c r="E1895" t="n">
+        <v>63.03</v>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:09.944386</t>
+        </is>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1896" t="n">
+        <v>1045.28</v>
+      </c>
+      <c r="D1896" t="n">
+        <v>1804.3</v>
+      </c>
+      <c r="E1896" t="n">
+        <v>66.23</v>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:10.882070</t>
+        </is>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1897" t="n">
+        <v>1000.27</v>
+      </c>
+      <c r="D1897" t="n">
+        <v>2034.43</v>
+      </c>
+      <c r="E1897" t="n">
+        <v>77.31999999999999</v>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:11.454942</t>
+        </is>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1898" t="n">
+        <v>982.22</v>
+      </c>
+      <c r="D1898" t="n">
+        <v>2040.04</v>
+      </c>
+      <c r="E1898" t="n">
+        <v>69.04000000000001</v>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:12.376960</t>
+        </is>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1899" t="n">
+        <v>927.66</v>
+      </c>
+      <c r="D1899" t="n">
+        <v>1968.21</v>
+      </c>
+      <c r="E1899" t="n">
+        <v>88.11</v>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:12.870099</t>
+        </is>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1900" t="n">
+        <v>998.34</v>
+      </c>
+      <c r="D1900" t="n">
+        <v>2197.44</v>
+      </c>
+      <c r="E1900" t="n">
+        <v>78.12</v>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:13.757443</t>
+        </is>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1901" t="n">
+        <v>974.03</v>
+      </c>
+      <c r="D1901" t="n">
+        <v>2169.02</v>
+      </c>
+      <c r="E1901" t="n">
+        <v>61.34</v>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:14.297594</t>
+        </is>
+      </c>
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1902" t="n">
+        <v>840.4</v>
+      </c>
+      <c r="D1902" t="n">
+        <v>1826.12</v>
+      </c>
+      <c r="E1902" t="n">
+        <v>66.72</v>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:15.219515</t>
+        </is>
+      </c>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1903" t="n">
+        <v>879.38</v>
+      </c>
+      <c r="D1903" t="n">
+        <v>2169.08</v>
+      </c>
+      <c r="E1903" t="n">
+        <v>67.64</v>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:15.750430</t>
+        </is>
+      </c>
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1904" t="n">
+        <v>1029.22</v>
+      </c>
+      <c r="D1904" t="n">
+        <v>1884.05</v>
+      </c>
+      <c r="E1904" t="n">
+        <v>87.38</v>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:16.365994</t>
+        </is>
+      </c>
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1905" t="n">
+        <v>1117.78</v>
+      </c>
+      <c r="D1905" t="n">
+        <v>2088.65</v>
+      </c>
+      <c r="E1905" t="n">
+        <v>80.81999999999999</v>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:16.915705</t>
+        </is>
+      </c>
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1906" t="n">
+        <v>824.5</v>
+      </c>
+      <c r="D1906" t="n">
+        <v>2160.38</v>
+      </c>
+      <c r="E1906" t="n">
+        <v>70.36</v>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:17.499850</t>
+        </is>
+      </c>
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1907" t="n">
+        <v>1104.12</v>
+      </c>
+      <c r="D1907" t="n">
+        <v>2129.62</v>
+      </c>
+      <c r="E1907" t="n">
+        <v>79.55</v>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:18.046511</t>
+        </is>
+      </c>
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1908" t="n">
+        <v>1113.71</v>
+      </c>
+      <c r="D1908" t="n">
+        <v>2002.81</v>
+      </c>
+      <c r="E1908" t="n">
+        <v>75.33</v>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:18.633194</t>
+        </is>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1909" t="n">
+        <v>932.98</v>
+      </c>
+      <c r="D1909" t="n">
+        <v>2133.62</v>
+      </c>
+      <c r="E1909" t="n">
+        <v>84.31999999999999</v>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:19.183620</t>
+        </is>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1910" t="n">
+        <v>854.72</v>
+      </c>
+      <c r="D1910" t="n">
+        <v>2100.3</v>
+      </c>
+      <c r="E1910" t="n">
+        <v>86.39</v>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:19.748189</t>
+        </is>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1911" t="n">
+        <v>837.28</v>
+      </c>
+      <c r="D1911" t="n">
+        <v>2196.26</v>
+      </c>
+      <c r="E1911" t="n">
+        <v>73.54000000000001</v>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:20.316793</t>
+        </is>
+      </c>
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1912" t="n">
+        <v>1108.29</v>
+      </c>
+      <c r="D1912" t="n">
+        <v>2092.26</v>
+      </c>
+      <c r="E1912" t="n">
+        <v>81.38</v>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:20.880378</t>
+        </is>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1913" t="n">
+        <v>1058.22</v>
+      </c>
+      <c r="D1913" t="n">
+        <v>1888.94</v>
+      </c>
+      <c r="E1913" t="n">
+        <v>83.94</v>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:21.433159</t>
+        </is>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1914" t="n">
+        <v>1091.77</v>
+      </c>
+      <c r="D1914" t="n">
+        <v>2162.71</v>
+      </c>
+      <c r="E1914" t="n">
+        <v>86.92</v>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:22.018810</t>
+        </is>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1915" t="n">
+        <v>1101.63</v>
+      </c>
+      <c r="D1915" t="n">
+        <v>1835.02</v>
+      </c>
+      <c r="E1915" t="n">
+        <v>75.98</v>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:22.573646</t>
+        </is>
+      </c>
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1916" t="n">
+        <v>840.67</v>
+      </c>
+      <c r="D1916" t="n">
+        <v>2126.89</v>
+      </c>
+      <c r="E1916" t="n">
+        <v>79.02</v>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:23.143476</t>
+        </is>
+      </c>
+      <c r="B1917" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1917" t="n">
+        <v>1145.75</v>
+      </c>
+      <c r="D1917" t="n">
+        <v>1903.57</v>
+      </c>
+      <c r="E1917" t="n">
+        <v>73.62</v>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:23.716516</t>
+        </is>
+      </c>
+      <c r="B1918" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1918" t="n">
+        <v>1180.02</v>
+      </c>
+      <c r="D1918" t="n">
+        <v>1954.73</v>
+      </c>
+      <c r="E1918" t="n">
+        <v>62.65</v>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:24.285357</t>
+        </is>
+      </c>
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1919" t="n">
+        <v>1043.06</v>
+      </c>
+      <c r="D1919" t="n">
+        <v>2097.14</v>
+      </c>
+      <c r="E1919" t="n">
+        <v>84.38</v>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:24.868331</t>
+        </is>
+      </c>
+      <c r="B1920" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1920" t="n">
+        <v>1148.62</v>
+      </c>
+      <c r="D1920" t="n">
+        <v>2026.24</v>
+      </c>
+      <c r="E1920" t="n">
+        <v>88.76000000000001</v>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:25.418121</t>
+        </is>
+      </c>
+      <c r="B1921" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1921" t="n">
+        <v>1095.28</v>
+      </c>
+      <c r="D1921" t="n">
+        <v>1917.09</v>
+      </c>
+      <c r="E1921" t="n">
+        <v>89.79000000000001</v>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:26.012681</t>
+        </is>
+      </c>
+      <c r="B1922" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1922" t="n">
+        <v>1103.75</v>
+      </c>
+      <c r="D1922" t="n">
+        <v>2089.68</v>
+      </c>
+      <c r="E1922" t="n">
+        <v>87.54000000000001</v>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:26.564549</t>
+        </is>
+      </c>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1923" t="n">
+        <v>1044.8</v>
+      </c>
+      <c r="D1923" t="n">
+        <v>1857.41</v>
+      </c>
+      <c r="E1923" t="n">
+        <v>63.39</v>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:27.138161</t>
+        </is>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1924" t="n">
+        <v>1157.38</v>
+      </c>
+      <c r="D1924" t="n">
+        <v>1965.35</v>
+      </c>
+      <c r="E1924" t="n">
+        <v>89.36</v>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:27.699551</t>
+        </is>
+      </c>
+      <c r="B1925" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1925" t="n">
+        <v>971.53</v>
+      </c>
+      <c r="D1925" t="n">
+        <v>1987.13</v>
+      </c>
+      <c r="E1925" t="n">
+        <v>85.56999999999999</v>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:28.284426</t>
+        </is>
+      </c>
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1926" t="n">
+        <v>919.47</v>
+      </c>
+      <c r="D1926" t="n">
+        <v>2159.44</v>
+      </c>
+      <c r="E1926" t="n">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:28.828107</t>
+        </is>
+      </c>
+      <c r="B1927" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1927" t="n">
+        <v>1117.61</v>
+      </c>
+      <c r="D1927" t="n">
+        <v>2007.66</v>
+      </c>
+      <c r="E1927" t="n">
+        <v>76.54000000000001</v>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:29.415505</t>
+        </is>
+      </c>
+      <c r="B1928" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1928" t="n">
+        <v>936.51</v>
+      </c>
+      <c r="D1928" t="n">
+        <v>2121.1</v>
+      </c>
+      <c r="E1928" t="n">
+        <v>85.37</v>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:29.959434</t>
+        </is>
+      </c>
+      <c r="B1929" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1929" t="n">
+        <v>831.8099999999999</v>
+      </c>
+      <c r="D1929" t="n">
+        <v>1866.92</v>
+      </c>
+      <c r="E1929" t="n">
+        <v>82.55</v>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:30.565067</t>
+        </is>
+      </c>
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1930" t="n">
+        <v>1052.89</v>
+      </c>
+      <c r="D1930" t="n">
+        <v>1926.24</v>
+      </c>
+      <c r="E1930" t="n">
+        <v>82.29000000000001</v>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:31.082720</t>
+        </is>
+      </c>
+      <c r="B1931" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1931" t="n">
+        <v>862.76</v>
+      </c>
+      <c r="D1931" t="n">
+        <v>2082.09</v>
+      </c>
+      <c r="E1931" t="n">
+        <v>82.41</v>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:31.700438</t>
+        </is>
+      </c>
+      <c r="B1932" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1932" t="n">
+        <v>884.8099999999999</v>
+      </c>
+      <c r="D1932" t="n">
+        <v>2025.06</v>
+      </c>
+      <c r="E1932" t="n">
+        <v>86.22</v>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:32.214016</t>
+        </is>
+      </c>
+      <c r="B1933" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1933" t="n">
+        <v>1098.32</v>
+      </c>
+      <c r="D1933" t="n">
+        <v>2156.6</v>
+      </c>
+      <c r="E1933" t="n">
+        <v>89.52</v>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:32.827975</t>
+        </is>
+      </c>
+      <c r="B1934" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1934" t="n">
+        <v>935.5599999999999</v>
+      </c>
+      <c r="D1934" t="n">
+        <v>2138.42</v>
+      </c>
+      <c r="E1934" t="n">
+        <v>72.66</v>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:33.350983</t>
+        </is>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1935" t="n">
+        <v>1175.59</v>
+      </c>
+      <c r="D1935" t="n">
+        <v>1949.49</v>
+      </c>
+      <c r="E1935" t="n">
+        <v>80.45999999999999</v>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:33.965492</t>
+        </is>
+      </c>
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1936" t="n">
+        <v>978.3200000000001</v>
+      </c>
+      <c r="D1936" t="n">
+        <v>1835.87</v>
+      </c>
+      <c r="E1936" t="n">
+        <v>61.82</v>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:34.479667</t>
+        </is>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1937" t="n">
+        <v>958.9400000000001</v>
+      </c>
+      <c r="D1937" t="n">
+        <v>1849.74</v>
+      </c>
+      <c r="E1937" t="n">
+        <v>68.76000000000001</v>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:35.109672</t>
+        </is>
+      </c>
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1938" t="n">
+        <v>1035.06</v>
+      </c>
+      <c r="D1938" t="n">
+        <v>1902.43</v>
+      </c>
+      <c r="E1938" t="n">
+        <v>65.39</v>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:35.610969</t>
+        </is>
+      </c>
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1939" t="n">
+        <v>1193.57</v>
+      </c>
+      <c r="D1939" t="n">
+        <v>2179.22</v>
+      </c>
+      <c r="E1939" t="n">
+        <v>77.44</v>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:36.223657</t>
+        </is>
+      </c>
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1940" t="n">
+        <v>1134.44</v>
+      </c>
+      <c r="D1940" t="n">
+        <v>1876.61</v>
+      </c>
+      <c r="E1940" t="n">
+        <v>89.34999999999999</v>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:36.748761</t>
+        </is>
+      </c>
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1941" t="n">
+        <v>1103.08</v>
+      </c>
+      <c r="D1941" t="n">
+        <v>2154.52</v>
+      </c>
+      <c r="E1941" t="n">
+        <v>64.90000000000001</v>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:37.367200</t>
+        </is>
+      </c>
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1942" t="n">
+        <v>829.46</v>
+      </c>
+      <c r="D1942" t="n">
+        <v>2127.16</v>
+      </c>
+      <c r="E1942" t="n">
+        <v>62.28</v>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:37.867641</t>
+        </is>
+      </c>
+      <c r="B1943" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1943" t="n">
+        <v>901.4299999999999</v>
+      </c>
+      <c r="D1943" t="n">
+        <v>2179.25</v>
+      </c>
+      <c r="E1943" t="n">
+        <v>72.90000000000001</v>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:38.500800</t>
+        </is>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1944" t="n">
+        <v>875.29</v>
+      </c>
+      <c r="D1944" t="n">
+        <v>1827</v>
+      </c>
+      <c r="E1944" t="n">
+        <v>68.43000000000001</v>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:39.015690</t>
+        </is>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1945" t="n">
+        <v>830.59</v>
+      </c>
+      <c r="D1945" t="n">
+        <v>1807.93</v>
+      </c>
+      <c r="E1945" t="n">
+        <v>70.98999999999999</v>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:39.633959</t>
+        </is>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1946" t="n">
+        <v>1004.89</v>
+      </c>
+      <c r="D1946" t="n">
+        <v>1817.19</v>
+      </c>
+      <c r="E1946" t="n">
+        <v>71.69</v>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:40.150303</t>
+        </is>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1947" t="n">
+        <v>855.74</v>
+      </c>
+      <c r="D1947" t="n">
+        <v>1834.09</v>
+      </c>
+      <c r="E1947" t="n">
+        <v>66.93000000000001</v>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:40.767428</t>
+        </is>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1948" t="n">
+        <v>1128.1</v>
+      </c>
+      <c r="D1948" t="n">
+        <v>2182.17</v>
+      </c>
+      <c r="E1948" t="n">
+        <v>62.91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
